--- a/prog/Keyuan_Prog_Schedule.xlsx
+++ b/prog/Keyuan_Prog_Schedule.xlsx
@@ -249,44 +249,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +740,7 @@
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -763,87 +763,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2">
         <v>26</v>
       </c>
@@ -1046,305 +1046,305 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="5" customFormat="1" ht="20.25" outlineLevel="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:69" s="4" customFormat="1" ht="20.25" outlineLevel="1">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:69" outlineLevel="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:69" outlineLevel="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:69" outlineLevel="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:69" outlineLevel="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:69" outlineLevel="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:69" outlineLevel="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:69" outlineLevel="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:69" outlineLevel="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:12" outlineLevel="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" outlineLevel="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:12" outlineLevel="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" outlineLevel="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:12" outlineLevel="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:12" outlineLevel="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:12" outlineLevel="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:12" outlineLevel="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:12" outlineLevel="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="8" t="s">
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:12" outlineLevel="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:12" outlineLevel="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:12" outlineLevel="1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" outlineLevel="1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="20.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:2" s="4" customFormat="1" ht="20.25">
+      <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" ht="20.25" hidden="1" outlineLevel="1">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" s="3" customFormat="1" ht="20.25" hidden="1" outlineLevel="1">
       <c r="A35" s="12" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="39" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="40" spans="1:2" hidden="1" outlineLevel="1"/>
-    <row r="41" spans="1:2" s="4" customFormat="1" ht="20.25" collapsed="1">
+    <row r="41" spans="1:2" s="3" customFormat="1" ht="20.25" collapsed="1">
       <c r="A41" s="13" t="s">
         <v>5</v>
       </c>

--- a/prog/Keyuan_Prog_Schedule.xlsx
+++ b/prog/Keyuan_Prog_Schedule.xlsx
@@ -267,26 +267,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,13 +740,13 @@
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="68.875" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
     <col min="3" max="3" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="2.75" customWidth="1"/>
     <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
@@ -763,87 +763,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2">
         <v>26</v>
       </c>
@@ -1047,16 +1047,16 @@
       </c>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="20.25" outlineLevel="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:69" outlineLevel="1">
       <c r="A5" s="5" t="s">
@@ -1087,10 +1087,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:69" outlineLevel="1">
       <c r="A8" s="5" t="s">
@@ -1112,10 +1112,10 @@
       </c>
     </row>
     <row r="10" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:69" outlineLevel="1">
       <c r="A11" s="5" t="s">
@@ -1137,10 +1137,10 @@
       </c>
     </row>
     <row r="13" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:69" outlineLevel="1">
       <c r="A14" s="5" t="s">
@@ -1162,10 +1162,10 @@
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:12" outlineLevel="1">
       <c r="A17" s="5" t="s">
@@ -1182,10 +1182,10 @@
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:12" outlineLevel="1">
       <c r="A20" s="5" t="s">
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:12" outlineLevel="1">
       <c r="A23" s="5" t="s">
@@ -1248,10 +1248,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:12" outlineLevel="1">
       <c r="A26" s="5" t="s">
@@ -1273,10 +1273,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:12" outlineLevel="1">
       <c r="A29" s="5" t="s">
@@ -1317,10 +1317,10 @@
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:12" outlineLevel="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:12" outlineLevel="1">
       <c r="A32" s="5" t="s">
@@ -1339,16 +1339,16 @@
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="20.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" s="3" customFormat="1" ht="20.25" hidden="1" outlineLevel="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" hidden="1" outlineLevel="1">
       <c r="B36" t="s">
@@ -1364,13 +1364,18 @@
     <row r="39" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="40" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="41" spans="1:2" s="3" customFormat="1" ht="20.25" collapsed="1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:AL1"/>
+    <mergeCell ref="AM1:BQ1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
@@ -1384,11 +1389,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:AL1"/>
-    <mergeCell ref="AM1:BQ1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/prog/Keyuan_Prog_Schedule.xlsx
+++ b/prog/Keyuan_Prog_Schedule.xlsx
@@ -267,6 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -276,17 +285,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +740,7 @@
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -763,87 +763,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2">
         <v>26</v>
       </c>
@@ -1047,16 +1047,16 @@
       </c>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="20.25" outlineLevel="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:69" outlineLevel="1">
       <c r="A5" s="5" t="s">
@@ -1087,10 +1087,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:69" outlineLevel="1">
       <c r="A8" s="5" t="s">
@@ -1112,10 +1112,10 @@
       </c>
     </row>
     <row r="10" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:69" outlineLevel="1">
       <c r="A11" s="5" t="s">
@@ -1137,10 +1137,10 @@
       </c>
     </row>
     <row r="13" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:69" outlineLevel="1">
       <c r="A14" s="5" t="s">
@@ -1162,10 +1162,10 @@
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:12" outlineLevel="1">
       <c r="A17" s="5" t="s">
@@ -1182,10 +1182,10 @@
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:12" outlineLevel="1">
       <c r="A20" s="5" t="s">
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:12" outlineLevel="1">
       <c r="A23" s="5" t="s">
@@ -1248,10 +1248,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:12" outlineLevel="1">
       <c r="A26" s="5" t="s">
@@ -1273,10 +1273,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:12" outlineLevel="1">
       <c r="A29" s="5" t="s">
@@ -1317,10 +1317,10 @@
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:12" outlineLevel="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:12" outlineLevel="1">
       <c r="A32" s="5" t="s">
@@ -1339,16 +1339,16 @@
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="20.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" s="3" customFormat="1" ht="20.25" hidden="1" outlineLevel="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:2" hidden="1" outlineLevel="1">
       <c r="B36" t="s">
@@ -1364,18 +1364,13 @@
     <row r="39" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="40" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="41" spans="1:2" s="3" customFormat="1" ht="20.25" collapsed="1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:AL1"/>
-    <mergeCell ref="AM1:BQ1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
@@ -1389,6 +1384,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:AL1"/>
+    <mergeCell ref="AM1:BQ1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/prog/Keyuan_Prog_Schedule.xlsx
+++ b/prog/Keyuan_Prog_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,26 +267,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +740,7 @@
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -763,87 +763,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2">
         <v>26</v>
       </c>
@@ -1047,16 +1047,16 @@
       </c>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="20.25" outlineLevel="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:69" outlineLevel="1">
       <c r="A5" s="5" t="s">
@@ -1087,10 +1087,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:69" outlineLevel="1">
       <c r="A8" s="5" t="s">
@@ -1112,10 +1112,10 @@
       </c>
     </row>
     <row r="10" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:69" outlineLevel="1">
       <c r="A11" s="5" t="s">
@@ -1135,12 +1135,15 @@
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="V12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:69" outlineLevel="1">
       <c r="A14" s="5" t="s">
@@ -1162,10 +1165,10 @@
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.25" outlineLevel="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:12" outlineLevel="1">
       <c r="A17" s="5" t="s">
@@ -1182,10 +1185,10 @@
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:12" outlineLevel="1">
       <c r="A20" s="5" t="s">
@@ -1223,10 +1226,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:12" outlineLevel="1">
       <c r="A23" s="5" t="s">
@@ -1248,10 +1251,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:12" outlineLevel="1">
       <c r="A26" s="5" t="s">
@@ -1273,10 +1276,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" outlineLevel="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:12" outlineLevel="1">
       <c r="A29" s="5" t="s">
@@ -1317,10 +1320,10 @@
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:12" outlineLevel="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:12" outlineLevel="1">
       <c r="A32" s="5" t="s">
@@ -1339,16 +1342,16 @@
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="20.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" s="3" customFormat="1" ht="20.25" hidden="1" outlineLevel="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" hidden="1" outlineLevel="1">
       <c r="B36" t="s">
@@ -1364,13 +1367,18 @@
     <row r="39" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="40" spans="1:2" hidden="1" outlineLevel="1"/>
     <row r="41" spans="1:2" s="3" customFormat="1" ht="20.25" collapsed="1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:AL1"/>
+    <mergeCell ref="AM1:BQ1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
@@ -1384,11 +1392,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:AL1"/>
-    <mergeCell ref="AM1:BQ1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
